--- a/target/classes/testdata/IPSTest.xlsx
+++ b/target/classes/testdata/IPSTest.xlsx
@@ -14,21 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>inputJson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "source": "core",
-  "mobile": "17576075478",
-  "password": "525241"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,22 +62,6 @@
   </si>
   <si>
     <t>findMetaTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "name": "commonController.findMeta",
-  "token": "null",
-  "args": [
-    {
-      "first": 0,
-      "rows": 9999
-    },
-    {
-      "type": "AbnormalCause"
-    }
-  ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,28 +121,6 @@
   </si>
   <si>
     <t>findTaskFeeTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "name": "taskInstallController.findTaskInstall",
-  "token": "null",
-  "args": [
-    {
-      "first": 0,
-      "rows": 10
-    },
-    {
-      "taskStatus": "All",
-      "dateType": "All",
-      "trunkSts": "All",
-      "beginDate": null,
-      "endDate": null,
-      "isNormalSign": "All",
-      "waybillId": "1zt003000001"
-    }
-  ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,6 +183,121 @@
       "logisticsBill": "1qaz2wsx3edc",
       "addrCode": "110101001000",
       "abnoSource": "ips"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "source": "core",
+  "mobile": "17576075478",
+  "password": "525241"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointmentTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickUpTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "taskInstallController.findTaskInstall",
+  "token": "null",
+  "args": [
+    {
+      "first": 0,
+      "rows": 10
+    },
+    {
+      "taskStatus": "All",
+      "dateType": "All",
+      "trunkSts": "All",
+      "beginDate": null,
+      "endDate": null,
+      "isNormalSign": "All",
+      "waybillId": "1zt003000001"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "commonController.findMeta",
+  "token": "null",
+  "args": [
+    {
+      "first": 0,
+      "rows": 9999
+    },
+    {
+      "type": "AbnormalCause"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "taskInstallController.appointment",
+  "token": "null",
+  "args": [
+    {
+      "taskId": "WIY4q42d0lUBQh4L",
+      "appointmentTime": "2018-03-14T06:51:28.928Z",
+      "timeInterval": "Afternoon"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "taskInstallController.pickUp",
+  "token": "null",
+  "args": [
+    {
+      "taskId": "WIY4q42d0lUBQh4L"
+    }
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "name": "taskInstallController.sign",
+  "token": "null",
+  "args": [
+    {
+      "taskId": "WIY4q42d0lUBQh4L",
+      "signer": "tester2",
+      "signStatus": "normal",
+      "describe": "测试测试测试测试测试测试",
+      "files": [
+        "WIjfrsKd0lUorsus"
+      ],
+      "taskSignPlatFormType": "ips"
     }
   ]
 }</t>
@@ -615,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -639,107 +708,136 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="243" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/target/classes/testdata/IPSTest.xlsx
+++ b/target/classes/testdata/IPSTest.xlsx
@@ -290,7 +290,7 @@
   "token": "null",
   "args": [
     {
-      "taskId": "WIY4q42d0lUBQh4L",
+      "taskId": "",
       "signer": "tester2",
       "signStatus": "normal",
       "describe": "测试测试测试测试测试测试",

--- a/target/classes/testdata/IPSTest.xlsx
+++ b/target/classes/testdata/IPSTest.xlsx
@@ -298,7 +298,7 @@
   <si>
     <t>{
   "source": "core",
-  "mobile": "17576075478",
+  "mobile": "18000000000",
   "password": "123456"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
